--- a/arquivos/modelo excel/ficha produto.xlsx
+++ b/arquivos/modelo excel/ficha produto.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E6A7D9-C2DC-4EA2-A519-9B12FB753B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD6374-0B1B-4189-B4BA-F3C4BC436277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{987FF05A-778B-4465-93A5-41F9BDEEB7D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -45,25 +46,13 @@
     <t>Local:</t>
   </si>
   <si>
-    <t>CONJUNTO PONTO BOB ROLAMENT V3</t>
-  </si>
-  <si>
     <t>Ref.:</t>
   </si>
   <si>
     <t>Descr.:</t>
   </si>
   <si>
-    <t>D 21.01.03.00</t>
-  </si>
-  <si>
     <t>UM:</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>E-3-DIR</t>
   </si>
 </sst>
 </file>
@@ -102,13 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,6 +99,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -418,11 +407,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,6 +462,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,72 +501,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,13 +588,273 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector reto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D08BB12-375E-4087-9EE7-5A556D1D1F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="28575"/>
+          <a:ext cx="0" cy="10610850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector reto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E9ADC9-0ED5-40CC-A5DB-5A1B49E9D9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="0"/>
+          <a:ext cx="0" cy="10629900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>499244</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>499244</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector reto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96723640-07B5-499A-8956-D4F89F690CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="499244" y="26275"/>
+          <a:ext cx="0" cy="10610850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45983</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1162706" cy="344213"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5D634F-BF8F-47F4-9EC7-300CFBE6BFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="656897" y="38101"/>
+          <a:ext cx="1162706" cy="344213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45983</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1162706" cy="344213"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDC18BF-BBA6-4815-A60B-2D28D80A1FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3271345" y="39414"/>
+          <a:ext cx="1162706" cy="344213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -609,13 +903,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -664,7 +958,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -709,16 +1003,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -759,7 +1053,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -804,7 +1098,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -847,6 +1141,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>499244</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>499244</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector reto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FDC7B-8489-4A6E-B40D-7FB56F6A7A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="499244" y="26275"/>
+          <a:ext cx="0" cy="10668657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1146,931 +1495,1816 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E52EA1-9368-41BF-9B51-211FB8E9463D}">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD4DE22-4E47-472B-9B12-33574B35F2BA}">
+  <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="7" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="26" t="s">
+    <row r="1" spans="2:14" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="26" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="27">
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="2:14" ht="18.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="2:14" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="I5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="2:14" ht="3.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="180">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M45:N45"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.18" top="0.17" bottom="0.17" header="0.17" footer="0.17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E52EA1-9368-41BF-9B51-211FB8E9463D}">
+  <dimension ref="B1:N48"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="7" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37">
         <v>16334</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="27">
-        <v>16334</v>
-      </c>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="G2" s="38"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="2:14" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="2:14" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="G4" s="9"/>
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="31" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="31" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="4"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="1:13" ht="3.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
+    </row>
+    <row r="48" spans="2:14" ht="3.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.17" right="0.18" top="0.17" bottom="0.17" header="0.17" footer="0.17"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
